--- a/source_x_electricity_sum_feedin.xlsx
+++ b/source_x_electricity_sum_feedin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>(('electricity', 'demand_elec'), 'flow')</t>
   </si>
@@ -22,16 +22,31 @@
     <t>(('electricity', 'electricity_excess'), 'flow')</t>
   </si>
   <si>
-    <t>(('pv', 'electricity'), 'flow')</t>
+    <t>(('electricity', 'storage'), 'flow')</t>
+  </si>
+  <si>
+    <t>(('pv_CIGS', 'electricity'), 'flow')</t>
+  </si>
+  <si>
+    <t>(('pv_CdTe', 'electricity'), 'flow')</t>
+  </si>
+  <si>
+    <t>(('pv_Si', 'electricity'), 'flow')</t>
   </si>
   <si>
     <t>(('rx', 'electricity'), 'flow')</t>
   </si>
   <si>
-    <t>(('wind_off', 'electricity'), 'flow')</t>
-  </si>
-  <si>
-    <t>(('wind_on', 'electricity'), 'flow')</t>
+    <t>(('storage', 'electricity'), 'flow')</t>
+  </si>
+  <si>
+    <t>(('wind_off_pure', 'electricity'), 'flow')</t>
+  </si>
+  <si>
+    <t>(('wind_on_asynchron', 'electricity'), 'flow')</t>
+  </si>
+  <si>
+    <t>(('wind_on_hyprid', 'electricity'), 'flow')</t>
   </si>
 </sst>
 </file>
@@ -389,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31736542.56677252</v>
+        <v>420000000.0000002</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>229344377.7229999</v>
+        <v>50419834.91021407</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4899950</v>
+        <v>11373562.88371221</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -429,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1248361.53465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -437,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13813798.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -445,7 +460,47 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>241118810.1799999</v>
+        <v>185427271.2297298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>243707877.642086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>11373562.87173931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>41284686.006055</v>
       </c>
     </row>
   </sheetData>

--- a/source_x_electricity_sum_feedin.xlsx
+++ b/source_x_electricity_sum_feedin.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>(('electricity', 'demand_elec'), 'flow')</t>
   </si>
   <si>
-    <t>(('electricity', 'electricity_excess'), 'flow')</t>
-  </si>
-  <si>
     <t>(('electricity', 'storage'), 'flow')</t>
   </si>
   <si>
@@ -40,7 +37,7 @@
     <t>(('storage', 'electricity'), 'flow')</t>
   </si>
   <si>
-    <t>(('wind_off_pure', 'electricity'), 'flow')</t>
+    <t>(('t_wind_off', 'electricity'), 'flow')</t>
   </si>
   <si>
     <t>(('wind_on_asynchron', 'electricity'), 'flow')</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50419834.91021407</v>
+        <v>56035739.4847462</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -436,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11373562.88371221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -452,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>79874762.01108032</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +457,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>185427271.2297298</v>
+        <v>169586143.7985336</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>243707877.642086</v>
+        <v>56035739.47678374</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11373562.87173931</v>
+        <v>94821400.91464415</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -492,15 +489,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>41284686.006055</v>
+        <v>75717693.03168701</v>
       </c>
     </row>
   </sheetData>

--- a/source_x_electricity_sum_feedin.xlsx
+++ b/source_x_electricity_sum_feedin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>(('electricity', 'demand_elec'), 'flow')</t>
   </si>
@@ -22,28 +22,22 @@
     <t>(('electricity', 'storage'), 'flow')</t>
   </si>
   <si>
-    <t>(('pv_CIGS', 'electricity'), 'flow')</t>
-  </si>
-  <si>
-    <t>(('pv_CdTe', 'electricity'), 'flow')</t>
-  </si>
-  <si>
-    <t>(('pv_Si', 'electricity'), 'flow')</t>
-  </si>
-  <si>
     <t>(('rx', 'electricity'), 'flow')</t>
   </si>
   <si>
     <t>(('storage', 'electricity'), 'flow')</t>
   </si>
   <si>
+    <t>(('t_pv', 'electricity'), 'flow')</t>
+  </si>
+  <si>
     <t>(('t_wind_off', 'electricity'), 'flow')</t>
   </si>
   <si>
     <t>(('wind_on_asynchron', 'electricity'), 'flow')</t>
   </si>
   <si>
-    <t>(('wind_on_hyprid', 'electricity'), 'flow')</t>
+    <t>(('wind_on_hybrid', 'electricity'), 'flow')</t>
   </si>
 </sst>
 </file>
@@ -401,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>420000000.0000002</v>
+        <v>505999999.9999992</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -425,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56035739.4847462</v>
+        <v>21512987.91929575</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -433,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>188005970.673529</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -441,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>21512987.94203791</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -449,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>79874762.01108032</v>
+        <v>128058699.6831896</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -457,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>169586143.7985336</v>
+        <v>67493837.45481999</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -465,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>56035739.47678374</v>
+        <v>122441492.1922454</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -473,23 +467,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>94821400.91464415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
         <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>75717693.03168701</v>
       </c>
     </row>
   </sheetData>
